--- a/data/trans_camb/P50_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P50_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-7,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,78</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-9,79</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,9</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-5,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,27; -0,59</t>
+          <t>-34,08; 3,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 3,32</t>
+          <t>-24,95; 18,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 8,77</t>
+          <t>-22,6; 20,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 9,11</t>
+          <t>-16,31; 27,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 8,05</t>
+          <t>-26,58; 10,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 2,91</t>
+          <t>-23,63; 10,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 0,9</t>
+          <t>-27,05; 6,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 2,3</t>
+          <t>-24,12; 10,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 1,49</t>
+          <t>-22,27; 4,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 9,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,78; 9,14</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-15,56; 11,65</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-55,44%</t>
+          <t>-56,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-47,7%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-28,6%</t>
+          <t>-5,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,06%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-26,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,52%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-32,93%</t>
+          <t>-34,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,01%</t>
+          <t>-21,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,6%</t>
+          <t>-38,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-19,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-23,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,64%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,04; 19,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,0; 38,24</t>
+          <t>-81,51; 217,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,28; 85,08</t>
+          <t>-73,81; 194,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 40,29</t>
+          <t>-57,22; 255,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,78; 35,74</t>
+          <t>-70,15; 65,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,79; 12,26</t>
+          <t>-64,08; 61,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 4,14</t>
+          <t>-72,98; 37,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 12,99</t>
+          <t>-67,88; 60,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-58,85; 6,87</t>
+          <t>-72,28; 26,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-55,74; 56,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-60,68; 55,36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-48,78; 68,09</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,78</t>
+          <t>-8,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-20,99</t>
+          <t>-31,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-33,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,03</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-8,17</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-18,9</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-15,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 12,28</t>
+          <t>-40,09; 22,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,83; -3,16</t>
+          <t>-59,2; -9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 18,07</t>
+          <t>-32,54; 32,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 11,48</t>
+          <t>-62,06; -10,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 15,36</t>
+          <t>-23,7; 9,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 9,62</t>
+          <t>-23,29; 12,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 7,36</t>
+          <t>-22,79; 10,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 1,35</t>
+          <t>-10,82; 25,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 9,82</t>
+          <t>-26,51; 11,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-36,13; -4,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 18,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-33,5; 1,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>-17,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-45,37%</t>
+          <t>-62,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,82%</t>
+          <t>-65,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>-23,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,76%</t>
+          <t>-17,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>-20,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>-20,1%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-46,47%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-37,12%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 36,58</t>
+          <t>-67,34; 67,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,22; -8,91</t>
+          <t>-87,59; -26,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 53,19</t>
+          <t>-56,81; 103,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 48,1</t>
+          <t>-90,12; -24,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 63,34</t>
+          <t>-61,91; 45,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 41,22</t>
+          <t>-60,29; 64,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 24,64</t>
+          <t>-61,14; 55,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,33; 5,06</t>
+          <t>-31,59; 122,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 31,88</t>
+          <t>-54,59; 40,62</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-69,71; -16,19</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-50,57; 59,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-66,38; 5,34</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-4,3</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 11,14</t>
+          <t>-17,82; 16,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 11,12</t>
+          <t>-21,95; 9,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 13,26</t>
+          <t>-23,27; 9,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 4,96</t>
+          <t>-15,12; 18,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 18,45</t>
+          <t>-15,31; 4,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 9,81</t>
+          <t>-5,89; 17,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 5,97</t>
+          <t>-11,31; 11,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 12,37</t>
+          <t>-4,42; 20,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 9,05</t>
+          <t>-13,4; 4,5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 10,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 5,54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 15,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>-26,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>-27,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>-23,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>-17,37%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-13,01%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 53,03</t>
+          <t>-47,7; 72,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,7; 50,98</t>
+          <t>-61,45; 50,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 63,29</t>
+          <t>-66,39; 46,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,31; 28,15</t>
+          <t>-42,17; 92,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 98,73</t>
+          <t>-57,19; 32,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,68; 54,15</t>
+          <t>-24,1; 113,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 29,62</t>
+          <t>-43,38; 71,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 60,99</t>
+          <t>-17,94; 122,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 44,36</t>
+          <t>-46,34; 21,64</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-30,91; 51,85</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-43,94; 27,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-15,15; 79,03</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-7,25</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-9,31</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-6,61</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-4,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 6,95</t>
+          <t>-23,27; 4,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 6,45</t>
+          <t>-24,24; 2,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 7,6</t>
+          <t>-20,82; 6,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 2,77</t>
+          <t>-21,17; 7,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 4,75</t>
+          <t>-19,35; 8,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 6,08</t>
+          <t>-21,09; 4,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 2,72</t>
+          <t>-19,53; 6,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 3,6</t>
+          <t>-14,86; 12,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 4,23</t>
+          <t>-16,28; 3,21</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; -0,44</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-16,7; 3,27</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; 5,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>-28,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,4%</t>
+          <t>-34,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>-22,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>-23,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>-14,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>-20,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-14,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,85%</t>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-26,23%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-18,6%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-12,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 28,12</t>
+          <t>-59,81; 18,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 26,11</t>
+          <t>-63,6; 9,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 34,72</t>
+          <t>-53,47; 29,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 9,16</t>
+          <t>-56,22; 32,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 13,7</t>
+          <t>-42,27; 25,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 18,22</t>
+          <t>-47,17; 13,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 8,5</t>
+          <t>-43,16; 22,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 11,6</t>
+          <t>-32,16; 39,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 14,45</t>
+          <t>-40,44; 10,36</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-47,39; -1,14</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-41,51; 10,74</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-36,09; 17,22</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-5,42</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 9,92</t>
+          <t>-18,32; 10,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 10,07</t>
+          <t>-18,94; 11,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 12,64</t>
+          <t>-16,58; 14,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 4,73</t>
+          <t>-9,06; 22,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 10,62</t>
+          <t>-24,48; 11,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 8,17</t>
+          <t>-19,64; 19,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 4,91</t>
+          <t>-23,08; 13,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 6,38</t>
+          <t>-19,57; 19,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 6,54</t>
+          <t>-17,89; 6,49</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 9,1</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 9,6</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 16,92</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>-12,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-14,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-20,01%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>-9,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-7,0%</t>
+          <t>-15,92%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 43,62</t>
+          <t>-51,86; 53,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 45,29</t>
+          <t>-54,76; 58,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 55,3</t>
+          <t>-46,31; 69,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 15,99</t>
+          <t>-23,2; 115,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 36,16</t>
+          <t>-50,36; 35,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 28,69</t>
+          <t>-37,61; 60,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 17,79</t>
+          <t>-45,45; 40,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 23,58</t>
+          <t>-38,06; 56,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 23,04</t>
+          <t>-44,56; 22,68</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-39,49; 32,83</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-36,49; 33,47</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-19,04; 63,11</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>-14,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-16,39</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-9,64</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-14,74</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,58</t>
+          <t>-15,23</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-9,85</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-12,06</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-9,67</t>
+          <t>-11,77</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-15,67</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 2,49</t>
+          <t>-33,89; 2,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 5,05</t>
+          <t>-34,98; -0,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 9,48</t>
+          <t>-27,83; 10,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 6,23</t>
+          <t>-20,03; 20,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 1,12</t>
+          <t>-30,23; 12,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 2,83</t>
+          <t>-35,35; 7,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 0,88</t>
+          <t>-27,61; 16,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -2,36</t>
+          <t>-19,4; 29,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 1,77</t>
+          <t>-27,15; 1,61</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; -0,93</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-21,66; 8,75</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-14,25; 18,94</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-34,26%</t>
+          <t>-49,32%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-29,12%</t>
+          <t>-55,85%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>-27,26%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-36,09%</t>
+          <t>-26,63%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-33,25%</t>
+          <t>-40,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-33,27%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-26,67%</t>
+          <t>-34,92%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-46,5%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-20,44%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-61,74; 12,89</t>
+          <t>-83,04; 27,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 21,72</t>
+          <t>-85,13; 12,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,19; 42,03</t>
+          <t>-72,84; 56,97</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 19,56</t>
+          <t>-52,96; 121,69</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 5,02</t>
+          <t>-65,2; 45,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,86; 7,37</t>
+          <t>-74,9; 32,88</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-49,76; 4,11</t>
+          <t>-61,08; 60,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-56,88; -5,46</t>
+          <t>-45,37; 114,56</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 6,09</t>
+          <t>-66,09; 7,1</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-71,82; 0,97</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-52,78; 36,46</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-37,55; 72,54</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>-12,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-7,41</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-8,18</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 0,23</t>
+          <t>-17,04; 1,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -2,6</t>
+          <t>-21,48; -4,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 2,86</t>
+          <t>-13,38; 7,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -1,0</t>
+          <t>-16,45; 1,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,25</t>
+          <t>-14,01; -0,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -0,53</t>
+          <t>-10,54; 2,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -1,95</t>
+          <t>-11,25; 1,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -1,37</t>
+          <t>-4,11; 10,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,59</t>
+          <t>-12,94; -1,53</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; -3,49</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 1,48</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 4,08</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-12,79%</t>
+          <t>-12,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,25%</t>
+          <t>-18,62%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-21,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-17,63%</t>
+          <t>-12,78%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>-22,93%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-25,3%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-14,03%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-4,33%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 1,25</t>
+          <t>-44,81; 6,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,57; -9,31</t>
+          <t>-56,18; -16,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 10,38</t>
+          <t>-36,75; 26,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,41; -3,22</t>
+          <t>-42,07; 6,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 10,6</t>
+          <t>-38,69; -2,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -1,7</t>
+          <t>-29,88; 7,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,93; -6,28</t>
+          <t>-31,91; 5,96</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-26,52; -4,57</t>
+          <t>-11,72; 36,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -1,8</t>
+          <t>-36,02; -4,43</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-39,13; -11,65</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 5,26</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 13,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
